--- a/data/trans_bre/P36B08_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.96979815678291</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.58133896012258</v>
+        <v>1.581338960122569</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.064340393755703</v>
@@ -649,7 +649,7 @@
         <v>0.03755309686665838</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.01640105941224382</v>
+        <v>0.01640105941224371</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.799536475954809</v>
+        <v>-1.975585906375219</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.922885671883056</v>
+        <v>4.505467778993613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.040253211622135</v>
+        <v>-3.067085840024372</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.4312370669688003</v>
+        <v>-0.7829892585235386</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.02559374700756961</v>
+        <v>-0.02769623532381276</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04929477521096268</v>
+        <v>0.05688094673263849</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.03658181686329586</v>
+        <v>-0.03882645637234651</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.004313653506669173</v>
+        <v>-0.007652831214530804</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.90516293006228</v>
+        <v>11.0379864044975</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.2570966570431</v>
+        <v>15.93825334127034</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.347461643830222</v>
+        <v>8.788188157710531</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.621283898773997</v>
+        <v>3.641821734073716</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1580595823208303</v>
+        <v>0.1635310276381758</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2069250658070719</v>
+        <v>0.2155981593277095</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1103599945103171</v>
+        <v>0.1134936399713661</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.03815383998478299</v>
+        <v>0.03848444745519847</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.5305827512151695</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.631807653018835</v>
+        <v>1.631807653018791</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06996576692353383</v>
@@ -749,7 +749,7 @@
         <v>0.006749163232000797</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.01706095188345246</v>
+        <v>0.01706095188345199</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.993001684502035</v>
+        <v>-2.498711778276478</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.653001853182957</v>
+        <v>-3.163769786358541</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.384265759893611</v>
+        <v>-5.700441340938371</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.8752257946856202</v>
+        <v>-1.06146548513285</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04235797503674535</v>
+        <v>-0.03615821122023801</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.03381673466316074</v>
+        <v>-0.03916548937280642</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06480303069244345</v>
+        <v>-0.07023010084263237</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.008925243064973437</v>
+        <v>-0.01093617471761177</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.45452933913921</v>
+        <v>11.5509320650439</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.22494759984248</v>
+        <v>10.28196316320913</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.607252122488924</v>
+        <v>6.354501892874363</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.237505119276472</v>
+        <v>4.145206269323739</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.193978802966704</v>
+        <v>0.1951465170213672</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1413959993099664</v>
+        <v>0.145164991322403</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08750088952399195</v>
+        <v>0.08485652084564499</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.04556352342857726</v>
+        <v>0.04432489598014695</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>9.621929653160343</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0994273495851572</v>
+        <v>0.0994273495851683</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1150245961512635</v>
@@ -849,7 +849,7 @@
         <v>0.1374869761176317</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.001044439487786953</v>
+        <v>0.00104443948778707</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.795802080564227</v>
+        <v>-2.126155435005627</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.04403579722051844</v>
+        <v>0.09907316947161199</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.612966865379998</v>
+        <v>1.025352609316575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.58897764370153</v>
+        <v>-3.298605364301487</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.02672725921654415</v>
+        <v>-0.03198137368002587</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.002131284496602241</v>
+        <v>0.001616179354485439</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02707282865100248</v>
+        <v>0.01427480835239651</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.03738281107564512</v>
+        <v>-0.03396853611272307</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.04255040163924</v>
+        <v>14.77134305135399</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.22578993553326</v>
+        <v>12.28971246572037</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.74699656166967</v>
+        <v>16.64266550118363</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.241617664861517</v>
+        <v>3.463887478682415</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2513926134011015</v>
+        <v>0.2457372399439077</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1694039442940012</v>
+        <v>0.1702486769942951</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2476573201761165</v>
+        <v>0.2526017570918374</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.03418836971066641</v>
+        <v>0.03703903289258423</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.606176575708069</v>
+        <v>2.277324330684595</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.44696464734937</v>
+        <v>3.350492146964915</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6760464976862582</v>
+        <v>0.9780432769289702</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.8546014028770816</v>
+        <v>-0.826764970266702</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02504278885955517</v>
+        <v>0.03616660600626605</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04681136324044881</v>
+        <v>0.04580165593849612</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.009354264888619767</v>
+        <v>0.013486235741689</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.008950187789817566</v>
+        <v>-0.008724307682149419</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.38876249126381</v>
+        <v>10.84222866648243</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.96689165484406</v>
+        <v>11.42460029178702</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.11024303262705</v>
+        <v>8.793382138534993</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.455068486066232</v>
+        <v>3.239867290399049</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1646842433620432</v>
+        <v>0.1760476190400188</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1752270921751857</v>
+        <v>0.1648569699557499</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1324365960810218</v>
+        <v>0.127275171270257</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.03697210814545308</v>
+        <v>0.0349971314965966</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>5.498656518902267</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.032422679627999</v>
+        <v>2.032422679628021</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2104738424798341</v>
@@ -1049,7 +1049,7 @@
         <v>0.07579878826811892</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.02183300819013419</v>
+        <v>0.02183300819013443</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.635304028933909</v>
+        <v>5.936259553792929</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.283562872065751</v>
+        <v>2.962067662821294</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8827660858465212</v>
+        <v>1.260159944486099</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3817048337344058</v>
+        <v>-0.1670839543726965</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09234390474595039</v>
+        <v>0.09190606253487572</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0451216345560122</v>
+        <v>0.04093528782204434</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01242035036542777</v>
+        <v>0.01651256277961474</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.003857050114605048</v>
+        <v>-0.001819583805058111</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.78677106327054</v>
+        <v>19.37868568681616</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.13759480399253</v>
+        <v>13.20354342465759</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.21124365661487</v>
+        <v>10.09131141473071</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.865230086578774</v>
+        <v>4.869254181087966</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3518552106330294</v>
+        <v>0.3604590683436164</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.196964695258023</v>
+        <v>0.1972112152013837</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1499584228623997</v>
+        <v>0.1448107215875973</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.05357115820873794</v>
+        <v>0.05334764818111212</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>12.97320849042402</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.538586246537546</v>
+        <v>5.538586246537569</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3766544420159547</v>
@@ -1149,7 +1149,7 @@
         <v>0.2072064360453565</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.06183012346982098</v>
+        <v>0.06183012346982122</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>13.19671732133401</v>
+        <v>13.05871730978264</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>21.84387913002271</v>
+        <v>21.87353532760271</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.067201385850195</v>
+        <v>6.383919313368369</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2180922821374768</v>
+        <v>0.5940512368181958</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2331101531253658</v>
+        <v>0.2302726390998976</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3885923973971456</v>
+        <v>0.3898933100155794</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1043643235678448</v>
+        <v>0.09388020396536843</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.002490670495425086</v>
+        <v>0.006443476576980564</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>25.16867642248073</v>
+        <v>25.59200513034238</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>35.07362190798248</v>
+        <v>34.91732491803855</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19.19451288516609</v>
+        <v>19.36469779569257</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12.89465865570275</v>
+        <v>13.71281504364352</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5411404267550138</v>
+        <v>0.5513236861296962</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7967365773000242</v>
+        <v>0.7752249431654984</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3365741950074513</v>
+        <v>0.339489784404895</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1588253349352568</v>
+        <v>0.1679221981519689</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>5.074307604506867</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.445730432435177</v>
+        <v>1.445730432435188</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1252223315898315</v>
@@ -1249,7 +1249,7 @@
         <v>0.07017566063116758</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.01532385770420033</v>
+        <v>0.01532385770420045</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.663669735114373</v>
+        <v>5.635442621973829</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.146209633955325</v>
+        <v>6.150428606979517</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.902279400494933</v>
+        <v>2.968999817982045</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4477093107346617</v>
+        <v>0.3490546546548247</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.08773783488155805</v>
+        <v>0.08771095650963079</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08481262689995549</v>
+        <v>0.08479937187592908</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03941135018930043</v>
+        <v>0.04053792893157854</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.004723646524089888</v>
+        <v>0.003694397006440174</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.21626679704453</v>
+        <v>10.28377968245481</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.31377413200532</v>
+        <v>10.69170356441181</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.173896487583529</v>
+        <v>7.15665521766656</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.559352610169629</v>
+        <v>2.515085381814092</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1657275910963369</v>
+        <v>0.1676362688130176</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1476013069284255</v>
+        <v>0.1534339519303944</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1011117495742649</v>
+        <v>0.1009201685754776</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.02739285400383929</v>
+        <v>0.0267062494918941</v>
       </c>
     </row>
     <row r="25">
